--- a/Case Study 1/CSSECDV - Case Study 1 Project Documentation.xlsx
+++ b/Case Study 1/CSSECDV - Case Study 1 Project Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ejose\Documents\Github\CSSECDV\Case Study 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA1D786-961F-4888-8F32-E7754C7AEF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE5EA59-3E5E-4C37-BE71-A3257624239D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E5B6E951-E296-6A45-B171-4DEF88B6BA8E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Security Issue</t>
   </si>
@@ -187,11 +187,6 @@
     <t>No input validation on register input fields</t>
   </si>
   <si>
-    <t>Passwords must be hashed prior to writing and upon reading a password query. AES will be used for this.
-1. Implement hashing at a controller level for both password verification (read) and password saving (write).
-2. Update the current contents of the database such that the passwords are now in its hashed form.</t>
-  </si>
-  <si>
     <t>User credentials inputs are not validated making it vulnerable to:
 - SQL Injections
 - Buffer overflow
@@ -230,6 +225,20 @@
 3. Symbols (Username): _-.
 4. Symbols (Password): ~`!@#$%^&amp;*()_-+={[}]|\:&lt;,&gt;.?/
 Add functions that will check the login inputs (username and password) if it meets the minimum required inputs and won't allow SQL queries to be performed (', ", ; are not allowed which are found on SQL query strings) once login button is clicked. This function will dictate whether it will allow the login procedure to proceed any further or not.</t>
+  </si>
+  <si>
+    <t>Passwords must be hashed prior to writing and upon reading a password query. SHA-256 &amp; AES are used for hashing and encryption respectively.
+1. Implement hashing at a controller level for both password verification (read) and password saving (write).
+2. Update the current contents of the database such that the passwords are now in its hashed form.</t>
+  </si>
+  <si>
+    <t>Escalona, Jose Miguel A.</t>
+  </si>
+  <si>
+    <t>CSSECDV</t>
+  </si>
+  <si>
+    <t>Case Study 1</t>
   </si>
 </sst>
 </file>
@@ -315,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -328,6 +337,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,8 +562,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BDC2C145-CA6C-4116-8497-301F69D6F2EA}" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E11" xr:uid="{BDC2C145-CA6C-4116-8497-301F69D6F2EA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BDC2C145-CA6C-4116-8497-301F69D6F2EA}" name="Table1" displayName="Table1" ref="A2:E12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A2:E12" xr:uid="{BDC2C145-CA6C-4116-8497-301F69D6F2EA}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A8658888-9ED3-4E86-9710-4C5A3B1D4BB8}" name="No." dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{EF8290C0-79ED-4DAC-8965-A7C41CBFEE69}" name="Security Issue" dataDxfId="3"/>
@@ -860,217 +875,221 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="36.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="3" spans="1:5" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="262.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="4" spans="1:5" ht="262.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    <row r="6" spans="1:5" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="187.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="187.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="375" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -1135,9 +1154,16 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
+    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/Case Study 1/CSSECDV - Case Study 1 Project Documentation.xlsx
+++ b/Case Study 1/CSSECDV - Case Study 1 Project Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ejose\Documents\Github\CSSECDV\Case Study 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE5EA59-3E5E-4C37-BE71-A3257624239D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6099D0-6D0B-4DC8-B82D-3010F7592B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E5B6E951-E296-6A45-B171-4DEF88B6BA8E}"/>
   </bookViews>
@@ -166,12 +166,69 @@
     <t>Move Frame.registerAction() to Register.registerAction()</t>
   </si>
   <si>
+    <t>No input validation on register input fields</t>
+  </si>
+  <si>
+    <t>User credentials inputs are not validated making it vulnerable to:
+- SQL Injections
+- Buffer overflow
+- Null byte injection
+Minimum password requirements are also not being checked making it vulnerable to:
+- Weak passwords
+User account availability is not also checked making it vulnerable to:
+- Stolen identity
+- Unauthorized access</t>
+  </si>
+  <si>
+    <t>No actual user authentication at login
+(i.e., if username &amp; password match)</t>
+  </si>
+  <si>
+    <t>User login attempts (successful or not) are not being logged which could be USEFUL for:
+- Username attack detection (e.g., username enumeration)
+- Password attack/failure detection</t>
+  </si>
+  <si>
+    <t>User account registration logging</t>
+  </si>
+  <si>
+    <t>Registration attempts should also be logged which could be USEFUL for:
+- Auditing registered accounts (comparing registered on DB to registered by log)
+- Detecting possible attempts on user enumeration</t>
+  </si>
+  <si>
+    <t>Solving this would require implementing logging functionality on registration whether it is successful or not.</t>
+  </si>
+  <si>
+    <t>Passwords must be hashed prior to writing and upon reading a password query. SHA-256 &amp; AES are used for hashing and encryption respectively.
+1. Implement hashing at a controller level for both password verification (read) and password saving (write).
+2. Update the current contents of the database such that the passwords are now in its hashed form.</t>
+  </si>
+  <si>
+    <t>Escalona, Jose Miguel A.</t>
+  </si>
+  <si>
+    <t>CSSECDV</t>
+  </si>
+  <si>
+    <t>Case Study 1</t>
+  </si>
+  <si>
+    <t>Inputs for login must be validated such that the following are checked: 
+1. Uppercase letters (Password): A-Z
+2. Lowercase letters (Username &amp; Password): a-z
+2. Numbers (Username &amp; Password): 0-9
+3. Symbols (Username): _-.
+4. Symbols (Password): ~`!@#$%^&amp;*()_-+={[}]|\:&lt;,&gt;.?/
+Add functions that will check the login inputs (username and password) if it meets the minimum required inputs and won't allow SQL queries to be performed (', ", ; are not allowed which are found on SQL query strings) once login button is clicked. This function will dictate whether it will allow the login procedure to proceed any further or not.</t>
+  </si>
+  <si>
     <t>Inputs for user account credentials must be validated such that the following are checked: 
-1.  Uppercase letters (Password): A-Z
-2.	Lowercase letters (Username &amp; Password): a-z
-2.	Numbers (Username &amp; Password): 0-9
-3.	Symbols (Username): _-.
-4.	Symbols (Password): ~`!@#$%^&amp;*()_-+={[}]|\:&lt;,&gt;.?/
+1. Uppercase letters (Password): A-Z
+2. Lowercase letters (Username &amp; Password): a-z
+2. Numbers (Username &amp; Password): 0-9
+3. Symbols (Username): _-.
+4. Symbols (Password): ~`!@#$%^&amp;*()_-+={[}]|\:&lt;,&gt;.?/
 Once the inputs are pre-sanitized, the following must be also met in order to proceed further on the registration process:
 1. Minimum password length of 6
 2. At least 1 uppercase letter, 1 lowercase letter, 1 number, 1 symbol
@@ -182,63 +239,6 @@
 2. Won't allow SQL queries to be performed (', ", ; are not allowed which are found on SQL query strings) once register button is clicked.
 3. Check for minimum password requirements
 4. Check for username availability.</t>
-  </si>
-  <si>
-    <t>No input validation on register input fields</t>
-  </si>
-  <si>
-    <t>User credentials inputs are not validated making it vulnerable to:
-- SQL Injections
-- Buffer overflow
-- Null byte injection
-Minimum password requirements are also not being checked making it vulnerable to:
-- Weak passwords
-User account availability is not also checked making it vulnerable to:
-- Stolen identity
-- Unauthorized access</t>
-  </si>
-  <si>
-    <t>No actual user authentication at login
-(i.e., if username &amp; password match)</t>
-  </si>
-  <si>
-    <t>User login attempts (successful or not) are not being logged which could be USEFUL for:
-- Username attack detection (e.g., username enumeration)
-- Password attack/failure detection</t>
-  </si>
-  <si>
-    <t>User account registration logging</t>
-  </si>
-  <si>
-    <t>Registration attempts should also be logged which could be USEFUL for:
-- Auditing registered accounts (comparing registered on DB to registered by log)
-- Detecting possible attempts on user enumeration</t>
-  </si>
-  <si>
-    <t>Solving this would require implementing logging functionality on registration whether it is successful or not.</t>
-  </si>
-  <si>
-    <t>Inputs for login must be validated such that the following are checked: 
-1.  Uppercase letters (Password): A-Z
-2. Lowercase letters (Username &amp; Password): a-z
-2. Numbers (Username &amp; Password): 0-9
-3. Symbols (Username): _-.
-4. Symbols (Password): ~`!@#$%^&amp;*()_-+={[}]|\:&lt;,&gt;.?/
-Add functions that will check the login inputs (username and password) if it meets the minimum required inputs and won't allow SQL queries to be performed (', ", ; are not allowed which are found on SQL query strings) once login button is clicked. This function will dictate whether it will allow the login procedure to proceed any further or not.</t>
-  </si>
-  <si>
-    <t>Passwords must be hashed prior to writing and upon reading a password query. SHA-256 &amp; AES are used for hashing and encryption respectively.
-1. Implement hashing at a controller level for both password verification (read) and password saving (write).
-2. Update the current contents of the database such that the passwords are now in its hashed form.</t>
-  </si>
-  <si>
-    <t>Escalona, Jose Miguel A.</t>
-  </si>
-  <si>
-    <t>CSSECDV</t>
-  </si>
-  <si>
-    <t>Case Study 1</t>
   </si>
 </sst>
 </file>
@@ -254,16 +254,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -324,25 +324,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -356,7 +357,47 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -381,7 +422,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -406,7 +447,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -431,7 +472,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -460,7 +501,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -502,51 +543,11 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -562,14 +563,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BDC2C145-CA6C-4116-8497-301F69D6F2EA}" name="Table1" displayName="Table1" ref="A2:E12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BDC2C145-CA6C-4116-8497-301F69D6F2EA}" name="Table1" displayName="Table1" ref="A2:E12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A2:E12" xr:uid="{BDC2C145-CA6C-4116-8497-301F69D6F2EA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A8658888-9ED3-4E86-9710-4C5A3B1D4BB8}" name="No." dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{EF8290C0-79ED-4DAC-8965-A7C41CBFEE69}" name="Security Issue" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{DCA9FE58-A714-4D9C-B4D4-FF52664C3540}" name="Java File" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{D7E5722B-2AC8-4CE1-A9D7-5F2C469FBF5C}" name="Possible Vulnerabilities" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{A498D2AB-82DF-4DA5-BF7B-66DE30875766}" name="Solution Implementation" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A8658888-9ED3-4E86-9710-4C5A3B1D4BB8}" name="No." dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{EF8290C0-79ED-4DAC-8965-A7C41CBFEE69}" name="Security Issue" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{DCA9FE58-A714-4D9C-B4D4-FF52664C3540}" name="Java File" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{D7E5722B-2AC8-4CE1-A9D7-5F2C469FBF5C}" name="Possible Vulnerabilities" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A498D2AB-82DF-4DA5-BF7B-66DE30875766}" name="Solution Implementation" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -881,289 +882,290 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="36.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.25" customWidth="1"/>
+    <col min="1" max="1" width="22.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="90.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="262.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="187.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="375" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/Case Study 1/CSSECDV - Case Study 1 Project Documentation.xlsx
+++ b/Case Study 1/CSSECDV - Case Study 1 Project Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ejose\Documents\Github\CSSECDV\Case Study 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6099D0-6D0B-4DC8-B82D-3010F7592B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032F8DEB-170A-40E4-9886-EA8383F22078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E5B6E951-E296-6A45-B171-4DEF88B6BA8E}"/>
   </bookViews>
@@ -230,7 +230,7 @@
 3. Symbols (Username): _-.
 4. Symbols (Password): ~`!@#$%^&amp;*()_-+={[}]|\:&lt;,&gt;.?/
 Once the inputs are pre-sanitized, the following must be also met in order to proceed further on the registration process:
-1. Minimum password length of 6
+1. Minimum password length of 8
 2. At least 1 uppercase letter, 1 lowercase letter, 1 number, 1 symbol
 2. Password and confirm password contents match
 3. Username is available
@@ -254,19 +254,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -357,51 +355,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <name val="Cascadia Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -422,11 +380,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <name val="Cascadia Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -447,11 +405,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <name val="Cascadia Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -472,11 +430,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <name val="Cascadia Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -501,11 +459,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <name val="Cascadia Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -543,11 +501,51 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Cascadia Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Cascadia Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -563,14 +561,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BDC2C145-CA6C-4116-8497-301F69D6F2EA}" name="Table1" displayName="Table1" ref="A2:E12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BDC2C145-CA6C-4116-8497-301F69D6F2EA}" name="Table1" displayName="Table1" ref="A2:E12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A2:E12" xr:uid="{BDC2C145-CA6C-4116-8497-301F69D6F2EA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A8658888-9ED3-4E86-9710-4C5A3B1D4BB8}" name="No." dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{EF8290C0-79ED-4DAC-8965-A7C41CBFEE69}" name="Security Issue" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{DCA9FE58-A714-4D9C-B4D4-FF52664C3540}" name="Java File" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{D7E5722B-2AC8-4CE1-A9D7-5F2C469FBF5C}" name="Possible Vulnerabilities" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{A498D2AB-82DF-4DA5-BF7B-66DE30875766}" name="Solution Implementation" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A8658888-9ED3-4E86-9710-4C5A3B1D4BB8}" name="No." dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{EF8290C0-79ED-4DAC-8965-A7C41CBFEE69}" name="Security Issue" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{DCA9FE58-A714-4D9C-B4D4-FF52664C3540}" name="Java File" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{D7E5722B-2AC8-4CE1-A9D7-5F2C469FBF5C}" name="Possible Vulnerabilities" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{A498D2AB-82DF-4DA5-BF7B-66DE30875766}" name="Solution Implementation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -879,23 +877,23 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="90.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -906,7 +904,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -923,7 +921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -940,7 +938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="207" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -957,7 +955,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -974,7 +972,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -991,7 +989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="172.5" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1008,7 +1006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="207" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1025,7 +1023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="347.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1042,7 +1040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="224.25" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1059,7 +1057,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="396.75" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1076,7 +1074,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="138" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1093,70 +1091,70 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1164,8 +1162,8 @@
       <c r="E22" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="67" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/Case Study 1/CSSECDV - Case Study 1 Project Documentation.xlsx
+++ b/Case Study 1/CSSECDV - Case Study 1 Project Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ejose\Documents\Github\CSSECDV\Case Study 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032F8DEB-170A-40E4-9886-EA8383F22078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36892649-467D-41A8-A850-152403885096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E5B6E951-E296-6A45-B171-4DEF88B6BA8E}"/>
   </bookViews>
@@ -877,10 +877,10 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -888,7 +888,7 @@
     <col min="1" max="1" width="8.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="90.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11" style="1"/>
   </cols>
@@ -921,7 +921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -972,7 +972,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -989,7 +989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="172.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="191.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>

--- a/Case Study 1/CSSECDV - Case Study 1 Project Documentation.xlsx
+++ b/Case Study 1/CSSECDV - Case Study 1 Project Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ejose\Documents\Github\CSSECDV\Case Study 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36892649-467D-41A8-A850-152403885096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FDCA9E-F9E5-4A69-BE7B-1FDF723684AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E5B6E951-E296-6A45-B171-4DEF88B6BA8E}"/>
   </bookViews>
@@ -245,7 +245,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -254,17 +254,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Cascadia Code"/>
-      <family val="3"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Cascadia Code"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -324,23 +319,23 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -357,9 +352,49 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Cascadia Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -382,9 +417,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Cascadia Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -407,9 +442,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Cascadia Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -432,9 +467,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Cascadia Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -461,9 +496,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Cascadia Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -501,51 +536,11 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Cascadia Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Cascadia Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -561,14 +556,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BDC2C145-CA6C-4116-8497-301F69D6F2EA}" name="Table1" displayName="Table1" ref="A2:E12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BDC2C145-CA6C-4116-8497-301F69D6F2EA}" name="Table1" displayName="Table1" ref="A2:E12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A2:E12" xr:uid="{BDC2C145-CA6C-4116-8497-301F69D6F2EA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A8658888-9ED3-4E86-9710-4C5A3B1D4BB8}" name="No." dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{EF8290C0-79ED-4DAC-8965-A7C41CBFEE69}" name="Security Issue" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{DCA9FE58-A714-4D9C-B4D4-FF52664C3540}" name="Java File" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{D7E5722B-2AC8-4CE1-A9D7-5F2C469FBF5C}" name="Possible Vulnerabilities" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{A498D2AB-82DF-4DA5-BF7B-66DE30875766}" name="Solution Implementation" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A8658888-9ED3-4E86-9710-4C5A3B1D4BB8}" name="No." dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{EF8290C0-79ED-4DAC-8965-A7C41CBFEE69}" name="Security Issue" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{DCA9FE58-A714-4D9C-B4D4-FF52664C3540}" name="Java File" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{D7E5722B-2AC8-4CE1-A9D7-5F2C469FBF5C}" name="Possible Vulnerabilities" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A498D2AB-82DF-4DA5-BF7B-66DE30875766}" name="Solution Implementation" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -877,23 +872,23 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="63.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="90.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -904,7 +899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -921,7 +916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -938,7 +933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="207" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -955,7 +950,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="120.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -972,7 +967,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -989,7 +984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="191.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1006,7 +1001,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="207" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1023,7 +1018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="347.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1040,7 +1035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="224.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1057,7 +1052,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="396.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="353.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1074,7 +1069,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="138" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1091,70 +1086,70 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
